--- a/samples/excel12/test.xlsx
+++ b/samples/excel12/test.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.microsoft.com/office/excel/2006/2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/5/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion lastEdited="4" lowestEdited="4" rupBuild="4017"/>
   <workbookPr/>
-  <calcPr calcId="122211"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="11295" windowHeight="11445" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="11295" windowHeight="11445" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="extras" sheetId="4" r:id="rId1"/>
@@ -14,56 +13,63 @@
     <sheet name="FreezeH" sheetId="5" r:id="rId4"/>
     <sheet name="FreezeV" sheetId="6" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="122211"/>
   <webPublishing codePage="1252"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<sh:comments xmlns:sh="http://schemas.microsoft.com/office/excel/2006/2" xml:space="preserve">
-  <sh:authors>
-    <sh:author>Jody Goldberg</sh:author>
-  </sh:authors>
-  <sh:commentList>
-    <sh:comment ref="J16" authorId="0">
-      <sh:text>
-        <sh:r>
-          <sh:rPr>
-            <sh:b/>
-            <sh:sz val="8"/>
-            <sh:color indexed="81"/>
-            <sh:rFont val="Tahoma"/>
-            <sh:charset val="1"/>
-          </sh:rPr>
-          <sh:t>Jody Goldberg:</sh:t>
-        </sh:r>
-        <sh:r>
-          <sh:rPr>
-            <sh:sz val="8"/>
-            <sh:color indexed="81"/>
-            <sh:rFont val="Tahoma"/>
-            <sh:charset val="1"/>
-          </sh:rPr>
-          <sh:t>
-Text of comment
-</sh:t>
-        </sh:r>
-      </sh:text>
-    </sh:comment>
-  </sh:commentList>
-</sh:comments>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/5/main">
+  <authors>
+    <author>Jody Goldberg</author>
+  </authors>
+  <commentList>
+    <comment ref="J16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Jody Goldberg:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">_x000A_Text of comment_x000A_</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color theme="1"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t/>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.microsoft.com/office/excel/2006/2" xml:space="preserve" count="98" uniqueCount="80">
-  <sstItem>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/5/main" count="100" uniqueCount="81">
+  <si>
     <t>anotherstring</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>and another</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <r>
-      <t>Standard </t>
+      <t xml:space="preserve">Standard </t>
     </r>
     <r>
       <rPr>
@@ -81,7 +87,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -90,7 +96,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Big </t>
+      <t xml:space="preserve">Big </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +106,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>bold </t>
+      <t xml:space="preserve">bold </t>
     </r>
     <r>
       <rPr>
@@ -110,7 +116,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Italic </t>
+      <t xml:space="preserve">Italic </t>
     </r>
     <r>
       <rPr>
@@ -129,142 +135,142 @@
         <rFont val="Verdana"/>
         <family val="2"/>
       </rPr>
-      <t> Verdana</t>
+      <t xml:space="preserve"> Verdana</t>
     </r>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>repeated string</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>Shared Strings</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>left</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>right</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>center</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>H Align</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>fill</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>center across</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>distrib</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>general</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>just ify</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>V Align</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>Top</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>Center</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>Bottom</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>Distrib</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>Justify</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>row style</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>selected</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>merged</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>TopLeft</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>Unfrozen corner</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>group 1</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>group 2</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>comment</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>blue</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>21 units</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>152 pixels</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>top left of pane</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>frozen vertically</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>frozen horizontally</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>top left</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>Bold</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>underline</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>italic</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>strike</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>double uline</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>single acct uline</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>double acct uline</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>super</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>sub</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>Red</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>18 pt</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>Arial Black</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <r>
       <t>NOTBOLD</t>
     </r>
@@ -278,7 +284,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -301,7 +307,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t> </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -314,108 +320,111 @@
       </rPr>
       <t>NOTULINE</t>
     </r>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>indent 2 l</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>indent 2 r</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>indent 2 distrib</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>rotate 45</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>rotate -35</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>vert</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>wrap some text wrap some text</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>shrink to fit shrink to fit shrink</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>edit_pos</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>edit pos</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>Hide Grid</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>vgroup1</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>vgroup2</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>yellow tab</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>solid</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>75% gray</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>50% gray</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>25% gray</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>12.5% gray</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>6.25% gray</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>h stripe</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>v stripe</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>Rev Diag</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>Diag</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>Diag Cross</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>Thick Diag Cross</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>thin h</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>thin v</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>thin rev diag</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>thin diag</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>thin h cross</t>
-  </sstItem>
-  <sstItem>
+  </si>
+  <si>
     <t>thin diag cross</t>
-  </sstItem>
+  </si>
+  <si>
+    <t>editpos</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.microsoft.com/office/excel/2006/2" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/5/main">
   <fonts count="25">
     <font>
       <sz val="10"/>
@@ -615,12 +624,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="63"/>
-      </patternFill>
-    </fill>
-    <fill>
       <patternFill patternType="darkGray">
         <fgColor rgb="FFFF7F00"/>
         <bgColor theme="0"/>
@@ -726,6 +729,12 @@
       <patternFill patternType="lightTrellis">
         <fgColor rgb="FFFF7F00"/>
         <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="63"/>
       </patternFill>
     </fill>
   </fills>
@@ -741,7 +750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -823,13 +832,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -842,64 +851,20 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <colors>
-    <themeColors>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFEEECE1"/>
-      <rgbColor rgb="FF1F497D"/>
-      <rgbColor rgb="FF4F81BD"/>
-      <rgbColor rgb="FFC0504D"/>
-      <rgbColor rgb="FF9BBB59"/>
-      <rgbColor rgb="FF8064A2"/>
-      <rgbColor rgb="FF4BACC6"/>
-      <rgbColor rgb="FFF79646"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF800080"/>
-    </themeColors>
     <mruColors>
       <color rgb="FFFF7F00"/>
     </mruColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/legacyDrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xml xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:x="urn:schemas-microsoft-com:office:excel">
-  <o:shapelayout v:ext="edit">
-    <o:idmap v:ext="edit" data="3"/>
-  </o:shapelayout>
-  <v:shapetype id="_x0000_t202" coordsize="21600,21600" o:spt="202" path="m,l,21600r21600,l21600,xe">
-    <v:stroke joinstyle="miter"/>
-    <v:path gradientshapeok="t" o:connecttype="rect"/>
-  </v:shapetype>
-  <v:shape id="_x0000_s3073" type="#_x0000_t202" style="position:absolute;   margin-left:498.75pt;margin-top:219pt;width:77.25pt;height:55.5pt;z-index:1;   visibility:hidden" fillcolor="#f2f3cb" strokecolor="#81835a" o:insetmode="auto">
-    <v:fill color2="#fefefb" type="gradient">
-      <o:fill v:ext="view" type="gradientUnscaled"/>
-    </v:fill>
-    <v:shadow on="t" color="silver" opacity=".5" obscured="t"/>
-    <o:extrusion v:ext="view" backdepth="1in" on="t" rotationangle="25,25" viewpoint="0,0" viewpointorigin="0,0" skewangle="0" skewamt="0" lightposition=",-50000" type="perspective"/>
-    <v:path o:connecttype="none"/>
-    <v:textbox style="mso-direction-alt:auto">
-      <div style="text-align:left"/>
-    </v:textbox>
-    <x:ClientData ObjectType="Note">
-      <x:Anchor>
-    10, 25, 20, 3, 12, 25, 24, 9</x:Anchor>
-      <x:AutoFill>False</x:AutoFill>
-      <x:Row>15</x:Row>
-      <x:Column>9</x:Column>
-      <x:RowHidden/>
-    </x:ClientData>
-  </v:shape>
-</xml>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1200,18 +1165,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.microsoft.com/office/excel/2006/2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/5/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="F9:AC23"/>
+  <dimension ref="F9:P23"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="F9" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="J15" activePane="bottomRight" state="frozen"/>
       <selection activeCell="J15" sqref="J15"/>
       <selection pane="topRight" activeCell="J15" sqref="J15"/>
       <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
-      <selection pane="bottomRight" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1316,7 +1281,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection objects="0" scenarios="0"/>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0"/>
@@ -1326,11 +1290,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.microsoft.com/office/excel/2006/2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/5/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D32" activeCellId="1" sqref="A31:B32 C32:D33"/>
     </sheetView>
   </sheetViews>
@@ -1359,11 +1322,11 @@
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="33"/>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
       <c r="J2" t="s">
         <v>29</v>
       </c>
@@ -1377,9 +1340,9 @@
       </c>
       <c r="E3" s="33"/>
       <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
       <c r="J3" t="s">
         <v>30</v>
       </c>
@@ -1534,7 +1497,7 @@
       </c>
       <c r="K17" s="13"/>
     </row>
-    <row r="18" spans="1:11" customFormat="1" ht="27.75">
+    <row r="18" spans="1:11" customFormat="1" ht="23.25">
       <c r="B18" s="8" t="s">
         <v>11</v>
       </c>
@@ -1637,8 +1600,8 @@
       </c>
     </row>
     <row r="31" spans="1:11" customFormat="1">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43" t="s">
+      <c r="A31" s="63"/>
+      <c r="B31" s="63" t="s">
         <v>21</v>
       </c>
       <c r="E31" s="33"/>
@@ -1646,12 +1609,12 @@
       <c r="K31" s="13"/>
     </row>
     <row r="32" spans="1:11" customFormat="1">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="16" t="s">
+      <c r="A32" s="63"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="63" t="s">
         <v>56</v>
       </c>
       <c r="E32" s="33"/>
@@ -1659,8 +1622,8 @@
       <c r="K32" s="13"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
     </row>
     <row r="35" spans="1:11">
       <c r="B35" s="33" t="s">
@@ -1675,20 +1638,20 @@
       <c r="E35" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="F35" s="49" t="s">
+      <c r="F35" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="G35" s="49" t="s">
+      <c r="G35" s="48" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:11" customFormat="1">
-      <c r="B36" s="45"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="50"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="49"/>
       <c r="K36" s="13"/>
     </row>
     <row r="37" spans="1:11" s="33" customFormat="1">
@@ -1716,12 +1679,12 @@
       <c r="K37" s="13"/>
     </row>
     <row r="38" spans="1:11" customFormat="1">
-      <c r="B38" s="51"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="56"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="55"/>
       <c r="K38" s="13"/>
     </row>
     <row r="39" spans="1:11" s="33" customFormat="1">
@@ -1746,16 +1709,15 @@
       <c r="K39" s="13"/>
     </row>
     <row r="40" spans="1:11" customFormat="1">
-      <c r="B40" s="57"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="62"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="61"/>
       <c r="K40" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection objects="0" scenarios="0"/>
   <mergeCells>
     <mergeCell ref="G2:I3"/>
   </mergeCells>
@@ -1767,11 +1729,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.microsoft.com/office/excel/2006/2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/5/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1779,37 +1740,37 @@
   <sheetData>
     <row r="1" spans="1:2" customFormat="1">
       <c r="A1">
-        <f ce="1">1</f>
+        <f>1</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" customFormat="1">
       <c r="A2" t="str">
-        <f ce="1">"string"</f>
+        <f>"string"</f>
         <v>string</v>
       </c>
     </row>
     <row r="3" spans="1:2" customFormat="1">
       <c r="A3" t="b">
-        <f ce="1">TRUE</f>
+        <f>TRUE</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" customFormat="1">
       <c r="A4">
-        <f ce="1">3.1</f>
+        <f>3.1</f>
         <v>3.1</v>
       </c>
     </row>
     <row r="5" spans="1:2" customFormat="1">
       <c r="A5">
-        <f ce="1">A1</f>
+        <f>A1</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" customFormat="1">
       <c r="A6">
-        <f t="array" ref="A6:A7" ce="1">A1:A2</f>
+        <f t="array" ref="A6:A7">A1:A2</f>
         <v>1</v>
       </c>
     </row>
@@ -1820,78 +1781,77 @@
     </row>
     <row r="8" spans="1:2" customFormat="1">
       <c r="A8" t="e">
-        <f ce="1">NA()</f>
+        <f>NA()</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:2" customFormat="1">
       <c r="B10" t="str">
-        <f ce="1">"shared"&amp;" expr 1"</f>
+        <f>"shared"&amp;" expr 1"</f>
         <v>shared expr 1</v>
       </c>
     </row>
     <row r="11" spans="1:2" customFormat="1">
       <c r="B11" s="33" t="str">
-        <f t="shared" ref="B11:B15" ce="1" si="0">"shared"&amp;" expr 1"</f>
+        <f t="shared" ref="B11:B15" si="0">"shared"&amp;" expr 1"</f>
         <v>shared expr 1</v>
       </c>
     </row>
     <row r="12" spans="1:2" customFormat="1">
       <c r="B12" s="33" t="str">
-        <f t="shared" ce="1" si="0">"shared"&amp;" expr 1"</f>
+        <f t="shared" si="0"/>
         <v>shared expr 1</v>
       </c>
     </row>
     <row r="13" spans="1:2" customFormat="1">
       <c r="B13" s="33" t="str">
-        <f t="shared" ce="1" si="0">"shared"&amp;" expr 1"</f>
+        <f t="shared" si="0"/>
         <v>shared expr 1</v>
       </c>
     </row>
     <row r="14" spans="1:2" customFormat="1">
       <c r="B14" s="33" t="str">
-        <f t="shared" ce="1" si="0">"shared"&amp;" expr 1"</f>
+        <f t="shared" si="0"/>
         <v>shared expr 1</v>
       </c>
     </row>
     <row r="15" spans="1:2" customFormat="1">
       <c r="B15" s="33" t="str">
-        <f t="shared" ce="1" si="0">"shared"&amp;" expr 1"</f>
+        <f t="shared" si="0"/>
         <v>shared expr 1</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="str">
-        <f ce="1">"and "&amp;"another"</f>
+        <f>"and "&amp;"another"</f>
         <v>and another</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="33" t="str">
-        <f t="shared" ref="B18:B21" ce="1" si="1">"and "&amp;"another"</f>
+        <f t="shared" ref="B18:B21" si="1">"and "&amp;"another"</f>
         <v>and another</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="33" t="str">
-        <f t="shared" ce="1" si="1">"and "&amp;"another"</f>
+        <f t="shared" si="1"/>
         <v>and another</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="33" t="str">
-        <f t="shared" ce="1" si="1">"and "&amp;"another"</f>
+        <f t="shared" si="1"/>
         <v>and another</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="33" t="str">
-        <f t="shared" ce="1" si="1">"and "&amp;"another"</f>
+        <f t="shared" si="1"/>
         <v>and another</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection objects="0" scenarios="0"/>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1899,21 +1859,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.microsoft.com/office/excel/2006/2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr/>
-  <dimension ref="B1:B49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/5/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:D49"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="2:2" customFormat="1">
+    <row r="1" spans="2:4" customFormat="1">
       <c r="B1" s="19" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
+      <c r="D2" s="34" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="2:2" customFormat="1">
@@ -1922,7 +1886,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection objects="0" scenarios="0"/>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -1930,19 +1893,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.microsoft.com/office/excel/2006/2" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr/>
-  <dimension ref="A3:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/5/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:G8"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
       <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="3" spans="1:6" customFormat="1">
+    <row r="3" spans="1:7" customFormat="1">
       <c r="A3" s="19" t="s">
         <v>34</v>
       </c>
@@ -1950,8 +1912,12 @@
         <v>32</v>
       </c>
     </row>
+    <row r="8" spans="1:7">
+      <c r="G8" s="34" t="s">
+        <v>80</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection objects="0" scenarios="0"/>
   <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
